--- a/results/statistical_results.xlsx
+++ b/results/statistical_results.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenz/graphql-mongodb/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B8703-ED46-6046-9509-E68CCE409553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum_response_time_Results" sheetId="1" r:id="rId1"/>
     <sheet name="total_data_transferred_Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -98,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,17 +164,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +220,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -240,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -274,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,14 +465,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -508,13 +529,13 @@
         <v>550.76</v>
       </c>
       <c r="F2">
-        <v>68.90937817162479</v>
+        <v>68.909378171624795</v>
       </c>
       <c r="G2">
-        <v>0.0008021727211802302</v>
+        <v>8.021727211802302E-4</v>
       </c>
       <c r="H2">
-        <v>1.396221173350396E-07</v>
+        <v>1.396221173350396E-7</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -523,10 +544,10 @@
         <v>23</v>
       </c>
       <c r="K2">
-        <v>7.03744064544147E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>7.0374406454414703E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -537,7 +558,7 @@
         <v>758.48</v>
       </c>
       <c r="D3">
-        <v>37.02552632981738</v>
+        <v>37.025526329817382</v>
       </c>
       <c r="E3">
         <v>305.56</v>
@@ -546,10 +567,10 @@
         <v>17.40018390707408</v>
       </c>
       <c r="G3">
-        <v>0.1300569978770792</v>
+        <v>0.13005699787707919</v>
       </c>
       <c r="H3">
-        <v>0.03527770066618949</v>
+        <v>3.5277700666189488E-2</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -558,10 +579,10 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>7.029507032025076E-18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>7.0295070320250756E-18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -572,19 +593,19 @@
         <v>19.36</v>
       </c>
       <c r="D4">
-        <v>7.407455703546258</v>
+        <v>7.4074557035462583</v>
       </c>
       <c r="E4">
         <v>7.78</v>
       </c>
       <c r="F4">
-        <v>4.82613717169332</v>
+        <v>4.8261371716933201</v>
       </c>
       <c r="G4">
-        <v>0.002861161309718646</v>
+        <v>2.8611613097186462E-3</v>
       </c>
       <c r="H4">
-        <v>3.34532040814922E-12</v>
+        <v>3.3453204081492202E-12</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -593,10 +614,10 @@
         <v>23</v>
       </c>
       <c r="K4">
-        <v>4.395618125908514E-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>4.3956181259085143E-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -604,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>9.359999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="D5">
         <v>2.88277643947636</v>
@@ -613,13 +634,13 @@
         <v>8.92</v>
       </c>
       <c r="F5">
-        <v>1.610465771135792</v>
+        <v>1.6104657711357919</v>
       </c>
       <c r="G5">
-        <v>4.458853197661469E-09</v>
+        <v>4.4588531976614694E-9</v>
       </c>
       <c r="H5">
-        <v>6.162895475430224E-06</v>
+        <v>6.1628954754302238E-6</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -628,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.4083437707583149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.40834377075831491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -639,22 +660,22 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>8.619999999999999</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="D6">
-        <v>3.783596172955037</v>
+        <v>3.7835961729550371</v>
       </c>
       <c r="E6">
         <v>7.84</v>
       </c>
       <c r="F6">
-        <v>5.835614791947802</v>
+        <v>5.8356147919478021</v>
       </c>
       <c r="G6">
-        <v>9.184719847733741E-10</v>
+        <v>9.1847198477337411E-10</v>
       </c>
       <c r="H6">
-        <v>2.837696350387709E-12</v>
+        <v>2.8376963503877088E-12</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -663,10 +684,10 @@
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.0006347498814034487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>6.347498814034487E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -677,19 +698,19 @@
         <v>359.8</v>
       </c>
       <c r="D7">
-        <v>17.02351315093333</v>
+        <v>17.023513150933329</v>
       </c>
       <c r="E7">
-        <v>536.3200000000001</v>
+        <v>536.32000000000005</v>
       </c>
       <c r="F7">
-        <v>45.62036387404204</v>
+        <v>45.620363874042042</v>
       </c>
       <c r="G7">
-        <v>0.8823114414302439</v>
+        <v>0.88231144143024387</v>
       </c>
       <c r="H7">
-        <v>0.02369245185277112</v>
+        <v>2.3692451852771121E-2</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -698,10 +719,10 @@
         <v>23</v>
       </c>
       <c r="K7">
-        <v>7.016830867886634E-18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>7.0168308678866336E-18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -718,13 +739,13 @@
         <v>6.14</v>
       </c>
       <c r="F8">
-        <v>2.870609691337364</v>
+        <v>2.8706096913373642</v>
       </c>
       <c r="G8">
         <v>8.530976720077076E-12</v>
       </c>
       <c r="H8">
-        <v>3.595253055638702E-09</v>
+        <v>3.5952530556387022E-9</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -733,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>2.149408184459038E-09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2.1494081844590379E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -747,19 +768,19 @@
         <v>5.56</v>
       </c>
       <c r="D9">
-        <v>4.167301285004481</v>
+        <v>4.1673012850044806</v>
       </c>
       <c r="E9">
         <v>8.9</v>
       </c>
       <c r="F9">
-        <v>4.459820624195551</v>
+        <v>4.4598206241955509</v>
       </c>
       <c r="G9">
-        <v>4.292045285664638E-10</v>
+        <v>4.2920452856646378E-10</v>
       </c>
       <c r="H9">
-        <v>2.306586576213144E-07</v>
+        <v>2.3065865762131439E-7</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -768,10 +789,10 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>1.728366218259712E-08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>1.7283662182597118E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -779,10 +800,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="D10">
-        <v>7.525955088890712</v>
+        <v>7.5259550888907123</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -791,10 +812,10 @@
         <v>5.440588203494177</v>
       </c>
       <c r="G10">
-        <v>0.859070758953887</v>
+        <v>0.85907075895388696</v>
       </c>
       <c r="H10">
-        <v>0.5819030065809301</v>
+        <v>0.58190300658093008</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -803,7 +824,7 @@
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.07250948813365837</v>
+        <v>7.2509488133658373E-2</v>
       </c>
     </row>
   </sheetData>
@@ -812,14 +833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -889,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -924,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -959,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>

--- a/results/statistical_results.xlsx
+++ b/results/statistical_results.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenz/graphql-mongodb/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE7C1C-23F9-9B4C-BB2D-E3CDDBC2761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum_response_time_Results" sheetId="1" r:id="rId1"/>
     <sheet name="total_data_transferred_Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -92,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,17 +158,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,14 +459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -496,19 +512,19 @@
         <v>451.86</v>
       </c>
       <c r="D2">
-        <v>14.45961271957171</v>
+        <v>14.459612719571711</v>
       </c>
       <c r="E2">
         <v>732.76</v>
       </c>
       <c r="F2">
-        <v>34.96144161787382</v>
+        <v>34.961441617873817</v>
       </c>
       <c r="G2">
-        <v>0.1497939213968038</v>
+        <v>0.14979392139680381</v>
       </c>
       <c r="H2">
-        <v>5.472809627205303E-06</v>
+        <v>5.4728096272053028E-6</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -517,10 +533,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>7.010500907615667E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>7.0105009076156667E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -528,10 +544,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="D3">
-        <v>6.016111701090663</v>
+        <v>6.0161117010906633</v>
       </c>
       <c r="E3">
         <v>10.5</v>
@@ -540,10 +556,10 @@
         <v>1.802775637731995</v>
       </c>
       <c r="G3">
-        <v>0.0001500798061305052</v>
+        <v>1.5007980613050519E-4</v>
       </c>
       <c r="H3">
-        <v>5.81405056817293E-08</v>
+        <v>5.8140505681729301E-8</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -552,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>3.39011603609953E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>3.3901160360995299E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -572,13 +588,13 @@
         <v>10.16</v>
       </c>
       <c r="F4">
-        <v>1.390827092057097</v>
+        <v>1.3908270920570971</v>
       </c>
       <c r="G4">
-        <v>6.818708741544236E-07</v>
+        <v>6.8187087415442363E-7</v>
       </c>
       <c r="H4">
-        <v>3.60464702927427E-09</v>
+        <v>3.6046470292742699E-9</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -587,10 +603,10 @@
         <v>21</v>
       </c>
       <c r="K4">
-        <v>3.53360157150738E-17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>3.5336015715073803E-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -601,19 +617,19 @@
         <v>17.98</v>
       </c>
       <c r="D5">
-        <v>7.066795596308131</v>
+        <v>7.0667955963081308</v>
       </c>
       <c r="E5">
         <v>14.52</v>
       </c>
       <c r="F5">
-        <v>5.15844937941626</v>
+        <v>5.1584493794162602</v>
       </c>
       <c r="G5">
-        <v>5.533424427110507E-09</v>
+        <v>5.5334244271105074E-9</v>
       </c>
       <c r="H5">
-        <v>0.0001426370968438286</v>
+        <v>1.4263709684382859E-4</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -622,10 +638,10 @@
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.002730798396997467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>2.730798396997467E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -636,19 +652,19 @@
         <v>531.66</v>
       </c>
       <c r="D6">
-        <v>31.90837507614576</v>
+        <v>31.908375076145759</v>
       </c>
       <c r="E6">
         <v>646.12</v>
       </c>
       <c r="F6">
-        <v>33.88783852652747</v>
+        <v>33.887838526527467</v>
       </c>
       <c r="G6">
-        <v>0.9240409783210422</v>
+        <v>0.92404097832104215</v>
       </c>
       <c r="H6">
-        <v>0.4162028437399276</v>
+        <v>0.41620284373992761</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -657,10 +673,10 @@
         <v>22</v>
       </c>
       <c r="K6">
-        <v>2.188473021818271E-31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>2.1884730218182709E-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -671,19 +687,19 @@
         <v>7.4</v>
       </c>
       <c r="D7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <v>10.96</v>
       </c>
       <c r="F7">
-        <v>4.979799192738599</v>
+        <v>4.9797991927385992</v>
       </c>
       <c r="G7">
-        <v>8.54331360252862E-09</v>
+        <v>8.5433136025286198E-9</v>
       </c>
       <c r="H7">
-        <v>7.941766490066619E-07</v>
+        <v>7.9417664900666186E-7</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -692,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="K7">
-        <v>2.269063814709731E-07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>2.269063814709731E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -706,19 +722,19 @@
         <v>4.34</v>
       </c>
       <c r="D8">
-        <v>2.589285615763545</v>
+        <v>2.5892856157635449</v>
       </c>
       <c r="E8">
         <v>14.38</v>
       </c>
       <c r="F8">
-        <v>6.196418320287939</v>
+        <v>6.1964183202879388</v>
       </c>
       <c r="G8">
-        <v>9.149408744390774E-11</v>
+        <v>9.1494087443907742E-11</v>
       </c>
       <c r="H8">
-        <v>2.399054918215777E-05</v>
+        <v>2.399054918215777E-5</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -727,10 +743,10 @@
         <v>21</v>
       </c>
       <c r="K8">
-        <v>7.460313300548471E-16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>7.4603133005484711E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -747,10 +763,10 @@
         <v>117.6</v>
       </c>
       <c r="F9">
-        <v>6.740919818541086</v>
+        <v>6.7409198185410864</v>
       </c>
       <c r="G9">
-        <v>0.05049777531351138</v>
+        <v>5.0497775313511378E-2</v>
       </c>
       <c r="H9">
         <v>0.2458316519915443</v>
@@ -762,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.0004842631394519024</v>
+        <v>4.8426313945190241E-4</v>
       </c>
     </row>
   </sheetData>
@@ -771,14 +787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -848,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -883,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -918,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -953,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -999,19 +1015,19 @@
         <v>552.16</v>
       </c>
       <c r="D7">
-        <v>1.433317829373513</v>
+        <v>1.4333178293735129</v>
       </c>
       <c r="E7">
         <v>490.04</v>
       </c>
       <c r="F7">
-        <v>0.7200000000000001</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="G7">
-        <v>1.308599693126748E-06</v>
+        <v>1.308599693126748E-6</v>
       </c>
       <c r="H7">
-        <v>1.438770345060177E-06</v>
+        <v>1.438770345060177E-6</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -1023,7 +1039,7 @@
         <v>1.686182391326555E-18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.883621224171971</v>
+        <v>0.88362122417197098</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1090,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="K9">
-        <v>7.577653784069605E-15</v>
+        <v>7.5776537840696045E-15</v>
       </c>
     </row>
   </sheetData>

--- a/results/statistical_results.xlsx
+++ b/results/statistical_results.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenz/graphql-mongodb/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE7C1C-23F9-9B4C-BB2D-E3CDDBC2761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sum_response_time_Results" sheetId="1" r:id="rId1"/>
     <sheet name="total_data_transferred_Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -98,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,25 +152,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +200,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -512,19 +496,19 @@
         <v>451.86</v>
       </c>
       <c r="D2">
-        <v>14.459612719571711</v>
+        <v>14.45961271957171</v>
       </c>
       <c r="E2">
         <v>732.76</v>
       </c>
       <c r="F2">
-        <v>34.961441617873817</v>
+        <v>34.96144161787382</v>
       </c>
       <c r="G2">
-        <v>0.14979392139680381</v>
+        <v>0.1497939213968038</v>
       </c>
       <c r="H2">
-        <v>5.4728096272053028E-6</v>
+        <v>5.472809627205303E-06</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -533,10 +517,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>7.0105009076156667E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7.010500907615667E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -544,10 +528,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>20.079999999999998</v>
+        <v>18.76</v>
       </c>
       <c r="D3">
-        <v>6.0161117010906633</v>
+        <v>3.597554725087584</v>
       </c>
       <c r="E3">
         <v>10.5</v>
@@ -556,10 +540,10 @@
         <v>1.802775637731995</v>
       </c>
       <c r="G3">
-        <v>1.5007980613050519E-4</v>
+        <v>0.001163470059104413</v>
       </c>
       <c r="H3">
-        <v>5.8140505681729301E-8</v>
+        <v>5.81405056817293E-08</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -568,10 +552,10 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>3.3901160360995299E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.183139353988279E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -588,13 +572,13 @@
         <v>10.16</v>
       </c>
       <c r="F4">
-        <v>1.3908270920570971</v>
+        <v>1.390827092057097</v>
       </c>
       <c r="G4">
-        <v>6.8187087415442363E-7</v>
+        <v>6.818708741544236E-07</v>
       </c>
       <c r="H4">
-        <v>3.6046470292742699E-9</v>
+        <v>3.60464702927427E-09</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -603,10 +587,10 @@
         <v>21</v>
       </c>
       <c r="K4">
-        <v>3.5336015715073803E-17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.53360157150738E-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -614,22 +598,22 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>17.98</v>
+        <v>16.9</v>
       </c>
       <c r="D5">
-        <v>7.0667955963081308</v>
+        <v>6.974955196988723</v>
       </c>
       <c r="E5">
         <v>14.52</v>
       </c>
       <c r="F5">
-        <v>5.1584493794162602</v>
+        <v>5.15844937941626</v>
       </c>
       <c r="G5">
-        <v>5.5334244271105074E-9</v>
+        <v>1.980423693536049E-09</v>
       </c>
       <c r="H5">
-        <v>1.4263709684382859E-4</v>
+        <v>0.0001426370968438286</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -638,10 +622,10 @@
         <v>21</v>
       </c>
       <c r="K5">
-        <v>2.730798396997467E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.0105601122249601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -652,19 +636,19 @@
         <v>531.66</v>
       </c>
       <c r="D6">
-        <v>31.908375076145759</v>
+        <v>31.90837507614576</v>
       </c>
       <c r="E6">
         <v>646.12</v>
       </c>
       <c r="F6">
-        <v>33.887838526527467</v>
+        <v>33.88783852652747</v>
       </c>
       <c r="G6">
-        <v>0.92404097832104215</v>
+        <v>0.9240409783210422</v>
       </c>
       <c r="H6">
-        <v>0.41620284373992761</v>
+        <v>0.4162028437399276</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -673,10 +657,10 @@
         <v>22</v>
       </c>
       <c r="K6">
-        <v>2.1884730218182709E-31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.188473021818271E-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -687,19 +671,19 @@
         <v>7.4</v>
       </c>
       <c r="D7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E7">
         <v>10.96</v>
       </c>
       <c r="F7">
-        <v>4.9797991927385992</v>
+        <v>4.979799192738599</v>
       </c>
       <c r="G7">
-        <v>8.5433136025286198E-9</v>
+        <v>8.54331360252862E-09</v>
       </c>
       <c r="H7">
-        <v>7.9417664900666186E-7</v>
+        <v>7.941766490066619E-07</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -708,10 +692,10 @@
         <v>21</v>
       </c>
       <c r="K7">
-        <v>2.269063814709731E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.269063814709731E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -722,19 +706,19 @@
         <v>4.34</v>
       </c>
       <c r="D8">
-        <v>2.5892856157635449</v>
+        <v>2.589285615763545</v>
       </c>
       <c r="E8">
         <v>14.38</v>
       </c>
       <c r="F8">
-        <v>6.1964183202879388</v>
+        <v>6.196418320287939</v>
       </c>
       <c r="G8">
-        <v>9.1494087443907742E-11</v>
+        <v>9.149408744390774E-11</v>
       </c>
       <c r="H8">
-        <v>2.399054918215777E-5</v>
+        <v>2.399054918215777E-05</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -743,10 +727,10 @@
         <v>21</v>
       </c>
       <c r="K8">
-        <v>7.4603133005484711E-16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7.460313300548471E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -763,10 +747,10 @@
         <v>117.6</v>
       </c>
       <c r="F9">
-        <v>6.7409198185410864</v>
+        <v>6.740919818541086</v>
       </c>
       <c r="G9">
-        <v>5.0497775313511378E-2</v>
+        <v>0.05049777531351138</v>
       </c>
       <c r="H9">
         <v>0.2458316519915443</v>
@@ -778,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="K9">
-        <v>4.8426313945190241E-4</v>
+        <v>0.0004842631394519024</v>
       </c>
     </row>
   </sheetData>
@@ -787,14 +771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -864,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -872,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>13900</v>
+        <v>9551</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -899,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -934,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -942,7 +926,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>4013</v>
+        <v>1201</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -969,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1015,19 +999,19 @@
         <v>552.16</v>
       </c>
       <c r="D7">
-        <v>1.4333178293735129</v>
+        <v>1.433317829373513</v>
       </c>
       <c r="E7">
         <v>490.04</v>
       </c>
       <c r="F7">
-        <v>0.72000000000000008</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="G7">
-        <v>1.308599693126748E-6</v>
+        <v>1.308599693126748E-06</v>
       </c>
       <c r="H7">
-        <v>1.438770345060177E-6</v>
+        <v>1.438770345060177E-06</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -1039,7 +1023,7 @@
         <v>1.686182391326555E-18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1074,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1094,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.88362122417197098</v>
+        <v>0.883621224171971</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1106,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="K9">
-        <v>7.5776537840696045E-15</v>
+        <v>7.577653784069605E-15</v>
       </c>
     </row>
   </sheetData>

--- a/results/statistical_results.xlsx
+++ b/results/statistical_results.xlsx
@@ -563,10 +563,10 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>16.7</v>
+        <v>15.16</v>
       </c>
       <c r="D4">
-        <v>4.313930922024598</v>
+        <v>5.296640444659237</v>
       </c>
       <c r="E4">
         <v>10.16</v>
@@ -575,7 +575,7 @@
         <v>1.390827092057097</v>
       </c>
       <c r="G4">
-        <v>6.818708741544236E-07</v>
+        <v>8.154447662214437E-06</v>
       </c>
       <c r="H4">
         <v>3.60464702927427E-09</v>
@@ -587,7 +587,7 @@
         <v>21</v>
       </c>
       <c r="K4">
-        <v>3.53360157150738E-17</v>
+        <v>3.929260964413422E-12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -891,7 +891,7 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>12438</v>
+        <v>3560</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/results/statistical_results.xlsx
+++ b/results/statistical_results.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenz/graphql-mongodb/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4AA58-AB9A-DF45-A4C5-314642EAF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="22980" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum_response_time_Results" sheetId="1" r:id="rId1"/>
     <sheet name="total_data_transferred_Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -92,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +162,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,14 +459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -496,19 +517,19 @@
         <v>451.86</v>
       </c>
       <c r="D2">
-        <v>14.45961271957171</v>
+        <v>14.459612719571711</v>
       </c>
       <c r="E2">
         <v>732.76</v>
       </c>
       <c r="F2">
-        <v>34.96144161787382</v>
+        <v>34.961441617873817</v>
       </c>
       <c r="G2">
-        <v>0.1497939213968038</v>
+        <v>0.14979392139680381</v>
       </c>
       <c r="H2">
-        <v>5.472809627205303E-06</v>
+        <v>5.4728096272053028E-6</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -517,10 +538,10 @@
         <v>21</v>
       </c>
       <c r="K2">
-        <v>7.010500907615667E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>7.0105009076156667E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -528,10 +549,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>18.76</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="D3">
-        <v>3.597554725087584</v>
+        <v>3.5975547250875839</v>
       </c>
       <c r="E3">
         <v>10.5</v>
@@ -540,10 +561,10 @@
         <v>1.802775637731995</v>
       </c>
       <c r="G3">
-        <v>0.001163470059104413</v>
+        <v>1.163470059104413E-3</v>
       </c>
       <c r="H3">
-        <v>5.81405056817293E-08</v>
+        <v>5.8140505681729301E-8</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -552,10 +573,10 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>3.183139353988279E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>3.1831393539882793E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -566,19 +587,19 @@
         <v>15.16</v>
       </c>
       <c r="D4">
-        <v>5.296640444659237</v>
+        <v>5.2966404446592366</v>
       </c>
       <c r="E4">
         <v>10.16</v>
       </c>
       <c r="F4">
-        <v>1.390827092057097</v>
+        <v>1.3908270920570971</v>
       </c>
       <c r="G4">
-        <v>8.154447662214437E-06</v>
+        <v>8.1544476622144371E-6</v>
       </c>
       <c r="H4">
-        <v>3.60464702927427E-09</v>
+        <v>3.6046470292742699E-9</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -587,10 +608,10 @@
         <v>21</v>
       </c>
       <c r="K4">
-        <v>3.929260964413422E-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>3.9292609644134221E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -598,22 +619,22 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D5">
-        <v>6.974955196988723</v>
+        <v>6.9749551969887227</v>
       </c>
       <c r="E5">
         <v>14.52</v>
       </c>
       <c r="F5">
-        <v>5.15844937941626</v>
+        <v>5.1584493794162602</v>
       </c>
       <c r="G5">
-        <v>1.980423693536049E-09</v>
+        <v>1.9804236935360488E-9</v>
       </c>
       <c r="H5">
-        <v>0.0001426370968438286</v>
+        <v>1.4263709684382859E-4</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -622,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.0105601122249601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>1.0560112224960101E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -636,19 +657,19 @@
         <v>531.66</v>
       </c>
       <c r="D6">
-        <v>31.90837507614576</v>
+        <v>31.908375076145759</v>
       </c>
       <c r="E6">
         <v>646.12</v>
       </c>
       <c r="F6">
-        <v>33.88783852652747</v>
+        <v>33.887838526527467</v>
       </c>
       <c r="G6">
-        <v>0.9240409783210422</v>
+        <v>0.92404097832104215</v>
       </c>
       <c r="H6">
-        <v>0.4162028437399276</v>
+        <v>0.41620284373992761</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -657,10 +678,10 @@
         <v>22</v>
       </c>
       <c r="K6">
-        <v>2.188473021818271E-31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>2.1884730218182709E-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -671,19 +692,19 @@
         <v>7.4</v>
       </c>
       <c r="D7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <v>10.96</v>
       </c>
       <c r="F7">
-        <v>4.979799192738599</v>
+        <v>4.9797991927385992</v>
       </c>
       <c r="G7">
-        <v>8.54331360252862E-09</v>
+        <v>8.5433136025286198E-9</v>
       </c>
       <c r="H7">
-        <v>7.941766490066619E-07</v>
+        <v>7.9417664900666186E-7</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -692,10 +713,10 @@
         <v>21</v>
       </c>
       <c r="K7">
-        <v>2.269063814709731E-07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>2.269063814709731E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -706,19 +727,19 @@
         <v>8.5</v>
       </c>
       <c r="D8">
-        <v>5.076416058598822</v>
+        <v>5.0764160585988218</v>
       </c>
       <c r="E8">
         <v>14.38</v>
       </c>
       <c r="F8">
-        <v>6.196418320287939</v>
+        <v>6.1964183202879388</v>
       </c>
       <c r="G8">
-        <v>6.679692885634235E-09</v>
+        <v>6.679692885634235E-9</v>
       </c>
       <c r="H8">
-        <v>2.399054918215777E-05</v>
+        <v>2.399054918215777E-5</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -727,10 +748,10 @@
         <v>21</v>
       </c>
       <c r="K8">
-        <v>8.089997196502213E-09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>8.0899971965022129E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -747,10 +768,10 @@
         <v>117.6</v>
       </c>
       <c r="F9">
-        <v>6.740919818541086</v>
+        <v>6.7409198185410864</v>
       </c>
       <c r="G9">
-        <v>0.05049777531351138</v>
+        <v>5.0497775313511378E-2</v>
       </c>
       <c r="H9">
         <v>0.2458316519915443</v>
@@ -762,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.0004842631394519024</v>
+        <v>4.8426313945190241E-4</v>
       </c>
     </row>
   </sheetData>
@@ -771,14 +792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -848,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -883,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -918,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -953,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.883621224171971</v>
+        <v>0.88362122417197098</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1090,7 +1111,7 @@
         <v>22</v>
       </c>
       <c r="K9">
-        <v>7.577653784069605E-15</v>
+        <v>7.5776537840696045E-15</v>
       </c>
     </row>
   </sheetData>
